--- a/output/fit_clients/fit_round_318.xlsx
+++ b/output/fit_clients/fit_round_318.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1865467934.502205</v>
+        <v>1722608500.707383</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07069534788414038</v>
+        <v>0.1047526106258984</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02845534152782915</v>
+        <v>0.037800453639591</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>932733944.8097724</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2226648388.451692</v>
+        <v>2096472337.542045</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1185536448583025</v>
+        <v>0.1611274553902466</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04826806470565234</v>
+        <v>0.03388116551775588</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1113324269.38738</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4478583967.077398</v>
+        <v>5167477227.218346</v>
       </c>
       <c r="F4" t="n">
-        <v>0.126532004378227</v>
+        <v>0.1189892849896006</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03243705942935957</v>
+        <v>0.03522325201075312</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>114</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2239292031.626404</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3868499016.99511</v>
+        <v>2758522840.79762</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08889859728569482</v>
+        <v>0.08138633245176795</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04576241861966841</v>
+        <v>0.03760821837626812</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>118</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1934249520.926045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2839708273.477799</v>
+        <v>2091301825.811412</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1365926403704942</v>
+        <v>0.1261211505440211</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05074440865827568</v>
+        <v>0.05176458448338946</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>59</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1419854075.46119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2279580556.361358</v>
+        <v>2016592353.909227</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07877948946435596</v>
+        <v>0.0689063464535008</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0366269353596596</v>
+        <v>0.04222288153180691</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>99</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1139790312.479269</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2710182930.792473</v>
+        <v>3507425885.443933</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1542431281638587</v>
+        <v>0.2054468577769957</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02917385783696465</v>
+        <v>0.03298218063891165</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>101</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1355091493.286456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1460311137.353281</v>
+        <v>1739340060.500431</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1245031750261079</v>
+        <v>0.1884090365307433</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03382185866211099</v>
+        <v>0.02941425598464822</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>730155670.1708279</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3865971175.659125</v>
+        <v>4505451932.606423</v>
       </c>
       <c r="F10" t="n">
-        <v>0.145339235987494</v>
+        <v>0.164947872023102</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04277150617488207</v>
+        <v>0.04728340303006294</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>133</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1932985599.322869</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2814929442.982557</v>
+        <v>3739969758.193553</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1463103477924853</v>
+        <v>0.1818842223747557</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03764915291367662</v>
+        <v>0.03974532118012532</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>131</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1407464651.53813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3276715128.697973</v>
+        <v>2847565554.494852</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1593119680474415</v>
+        <v>0.1305670138288235</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03355673864436786</v>
+        <v>0.04801528195928433</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>108</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1638357607.690119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4182254539.245106</v>
+        <v>4877306110.224775</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08682973118304244</v>
+        <v>0.07159765493642084</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02986812392993385</v>
+        <v>0.02902845830617065</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>106</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2091127315.294469</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2447509834.632258</v>
+        <v>3156384432.458003</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1396866321284148</v>
+        <v>0.1574822620773039</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04162766728731075</v>
+        <v>0.02793674221535968</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1223754991.768738</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1583449493.547354</v>
+        <v>1346210549.881611</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1024115897397409</v>
+        <v>0.108839701795963</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03009021186281458</v>
+        <v>0.04399422464545965</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>791724851.1965199</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1830738440.288208</v>
+        <v>1965248280.149718</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1068622245862117</v>
+        <v>0.1056342326253707</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04369916496292105</v>
+        <v>0.04891816190242169</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>63</v>
-      </c>
-      <c r="J16" t="n">
-        <v>915369310.7521304</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4233452268.569186</v>
+        <v>3817496779.137511</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1668977757689862</v>
+        <v>0.1128050832629079</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03507606314890738</v>
+        <v>0.04662957817321983</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>92</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2116726157.358304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3103374566.841382</v>
+        <v>3532742396.830403</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1596788498867441</v>
+        <v>0.1570345404741336</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02362057557687411</v>
+        <v>0.03108267818560999</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>104</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1551687306.202094</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1157000929.046465</v>
+        <v>889273161.79298</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1256693444354467</v>
+        <v>0.128577499102006</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02219435124915882</v>
+        <v>0.01959499313683425</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>578500532.0094895</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1951618741.2138</v>
+        <v>1930008858.870049</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1305669315059891</v>
+        <v>0.100054738963406</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0213110422758294</v>
+        <v>0.02397057012935808</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>975809402.0964345</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2615356775.935574</v>
+        <v>2438834587.806849</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09976634690507082</v>
+        <v>0.08229539703735494</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03171781915045808</v>
+        <v>0.03660967871774327</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1307678365.064105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3538502288.7889</v>
+        <v>3450073899.580477</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1230294027489231</v>
+        <v>0.1239232913927064</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04405699397266816</v>
+        <v>0.03710798887032217</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>87</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1769251173.680938</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1019289090.037822</v>
+        <v>1079943317.189903</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1735701439026399</v>
+        <v>0.1859657328402513</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04754795033161475</v>
+        <v>0.04013774850672572</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>509644611.9564633</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3393538602.342002</v>
+        <v>3441228256.813864</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09169057918266289</v>
+        <v>0.1203368676346162</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03417788874911497</v>
+        <v>0.03516707627096777</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>92</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1696769309.935443</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1329994708.03733</v>
+        <v>952703260.7080294</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1201308604324378</v>
+        <v>0.09380542681492024</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02645321085937343</v>
+        <v>0.02554731011812987</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>664997342.0741292</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1442001628.398419</v>
+        <v>1278326005.162367</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08124077597201874</v>
+        <v>0.1217934818253315</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03913662824172957</v>
+        <v>0.03187688820162682</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>721000894.4487785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4482810922.751534</v>
+        <v>3578011933.227949</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1415590813894757</v>
+        <v>0.09632988508814783</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01689839409104489</v>
+        <v>0.01940764080728784</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>83</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2241405447.57694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3885871445.078882</v>
+        <v>3800907511.978769</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1201059513720176</v>
+        <v>0.1345340739956863</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03351275419402549</v>
+        <v>0.0414461610519173</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>105</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1942935810.652927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3709500694.462578</v>
+        <v>5040476714.962814</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1094546315780341</v>
+        <v>0.09184837198528503</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02898749794477414</v>
+        <v>0.04563477874864466</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>140</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1854750384.257746</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1668783911.103346</v>
+        <v>1497564250.988539</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09502347245210578</v>
+        <v>0.09234476342372346</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02966957523819761</v>
+        <v>0.03212417381854898</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>834391955.2935507</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1473399835.848029</v>
+        <v>1120016198.059292</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09176433269832826</v>
+        <v>0.09253895993817333</v>
       </c>
       <c r="G31" t="n">
-        <v>0.045410279245</v>
+        <v>0.04190544384496665</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>736699805.0372044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1344831869.286244</v>
+        <v>1554283169.031819</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1042108245695056</v>
+        <v>0.07594214430563763</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03253044573765779</v>
+        <v>0.02417757437785591</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>672415970.8737161</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2261811333.698211</v>
+        <v>2816303384.406162</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1281084302090468</v>
+        <v>0.1895482224216241</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05022958657487784</v>
+        <v>0.05559175621974478</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>95</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1130905725.336787</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1457764973.158179</v>
+        <v>1515356551.97206</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08938896426556837</v>
+        <v>0.0770486730394893</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02659327938852291</v>
+        <v>0.02422660833635228</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>728882449.37181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1126090200.644708</v>
+        <v>1290123848.668506</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09094097542206146</v>
+        <v>0.07443900839574105</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03043471745460466</v>
+        <v>0.03036667701853091</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>563045091.2511885</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2154841409.030781</v>
+        <v>2247052568.894107</v>
       </c>
       <c r="F36" t="n">
-        <v>0.149363826496076</v>
+        <v>0.1202297210876258</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01893816631935268</v>
+        <v>0.01813497687213675</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>79</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1077420754.16837</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2605763019.238268</v>
+        <v>2239743729.132073</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09271611818167264</v>
+        <v>0.09555158317853223</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02697523383583591</v>
+        <v>0.02966807967406607</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>83</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1302881620.23761</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1783805244.326205</v>
+        <v>1821427945.93502</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07593713086440759</v>
+        <v>0.1001838606572607</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03514011317072264</v>
+        <v>0.03241186454713103</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>891902631.3316982</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1776291970.380392</v>
+        <v>2198647442.80463</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1176801505461866</v>
+        <v>0.1523209541346364</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03174158923227478</v>
+        <v>0.02993641616702505</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>888146013.6762378</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1137298599.944649</v>
+        <v>1719124526.851402</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1557844569725537</v>
+        <v>0.1332693160590933</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05428367537886356</v>
+        <v>0.05252509103716539</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>568649356.9452703</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2720059177.228153</v>
+        <v>2689473301.997437</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1544654502896056</v>
+        <v>0.152459925379976</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04192310318751453</v>
+        <v>0.03718329195716184</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>81</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1360029592.333152</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2910846829.775337</v>
+        <v>3304987691.210439</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1144151476775648</v>
+        <v>0.08499997164200671</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02945605994677143</v>
+        <v>0.03809596792164311</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1455423369.181259</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2875788965.331797</v>
+        <v>1994001351.038859</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1978162107276882</v>
+        <v>0.1757660549392793</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01739178390513586</v>
+        <v>0.02173195161375258</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>113</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1437894493.549716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1736761602.731294</v>
+        <v>1537355917.425285</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08498636686845573</v>
+        <v>0.0897880006784853</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0343037528020729</v>
+        <v>0.0293190119919479</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>868380855.1854563</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2197896962.509524</v>
+        <v>1986152808.796332</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1335891401031697</v>
+        <v>0.186877089030022</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05589140042704754</v>
+        <v>0.04553254791073589</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1098948492.075976</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5664163402.442789</v>
+        <v>5212678902.752194</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1426793640683189</v>
+        <v>0.1716300095096275</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05858606463243064</v>
+        <v>0.04738443757421976</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>113</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2832081766.047298</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4753086222.56068</v>
+        <v>3640728962.728847</v>
       </c>
       <c r="F47" t="n">
-        <v>0.124482489017494</v>
+        <v>0.1418528748021523</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05363473875601824</v>
+        <v>0.05374964360935703</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>85</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2376543153.07818</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4061577176.046041</v>
+        <v>4279475112.258817</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08909964190332524</v>
+        <v>0.0832554607795838</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02865273109031495</v>
+        <v>0.03664257550375121</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2030788618.805086</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1799135532.022491</v>
+        <v>1688866556.262954</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1886148187443193</v>
+        <v>0.1419865904946811</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03018403308474509</v>
+        <v>0.03103971921575926</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>899567751.5266111</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4072947803.104715</v>
+        <v>4117964940.40425</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1642423328453948</v>
+        <v>0.1438150880488725</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0516687741413949</v>
+        <v>0.0532410807649197</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>108</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2036473885.054223</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>990036006.5828807</v>
+        <v>1509301278.406718</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1338860186902649</v>
+        <v>0.1219548496315059</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04684379925574142</v>
+        <v>0.03315832932989422</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>495018088.8671565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3600423236.505497</v>
+        <v>4036927721.44879</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1292817647819991</v>
+        <v>0.1004074676634188</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04094151012517245</v>
+        <v>0.0403463960148959</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>130</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1800211698.25171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3178390837.034426</v>
+        <v>2626340525.979918</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1240673197037737</v>
+        <v>0.142050286304609</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02569425446059863</v>
+        <v>0.02400358090732655</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>91</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1589195438.663726</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3018774781.506179</v>
+        <v>4228700137.157769</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1604812852891135</v>
+        <v>0.1497607440309663</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05256007852982095</v>
+        <v>0.04447747314200099</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>105</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1509387377.788536</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3054751548.773118</v>
+        <v>3187491495.364456</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2208979994459337</v>
+        <v>0.2135915278149487</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02963070992394683</v>
+        <v>0.0313999065703774</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1527375707.571232</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1742601799.815843</v>
+        <v>1772335080.227027</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1552420290344041</v>
+        <v>0.1390851406601534</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04953053191053338</v>
+        <v>0.04592711198972345</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>871300906.2403923</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4586771904.640999</v>
+        <v>2789018164.831819</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1202244522797761</v>
+        <v>0.1618195894183481</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01786918557470118</v>
+        <v>0.02207992475135905</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>100</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2293386089.962262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1893658940.822672</v>
+        <v>1679753504.754375</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1329553757474048</v>
+        <v>0.1663127028911718</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02747420846929888</v>
+        <v>0.03180792216131523</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>946829465.6195134</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4289812097.987294</v>
+        <v>4698059635.558485</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1222694779559142</v>
+        <v>0.1124575782091512</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04491933174221446</v>
+        <v>0.04541548726344154</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>86</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2144906010.974825</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2400487737.54182</v>
+        <v>2380373159.296277</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2038733277633616</v>
+        <v>0.1643891741345053</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0311000212433556</v>
+        <v>0.02493181669635228</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1200243876.239921</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2360701113.984191</v>
+        <v>2802764979.129745</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1556844426457975</v>
+        <v>0.1341338328499444</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02192712378338289</v>
+        <v>0.02907857537703191</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>108</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1180350597.752576</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1561966554.576951</v>
+        <v>1522822876.507964</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1219497895185386</v>
+        <v>0.1740822014070866</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04587941434143568</v>
+        <v>0.0434672454276115</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>780983269.6432521</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4418329926.003485</v>
+        <v>3874577132.172915</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08897618257697495</v>
+        <v>0.09872429702998006</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02870158765394332</v>
+        <v>0.04406831804202498</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>91</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2209165006.744512</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3464762268.169581</v>
+        <v>5210240192.605225</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1196718844000101</v>
+        <v>0.149828892205236</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02662270439027987</v>
+        <v>0.02493841443599306</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>98</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1732381132.29417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5854758695.193512</v>
+        <v>5803450876.710647</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1552342042819451</v>
+        <v>0.1093166278579958</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02547898324536041</v>
+        <v>0.02493719286859352</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>113</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2927379255.4918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3632294664.452422</v>
+        <v>4172219557.801372</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1631564874236647</v>
+        <v>0.1134600606978018</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0439506862098979</v>
+        <v>0.03519699350953122</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>92</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1816147286.111683</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2484962155.408709</v>
+        <v>2153339881.955776</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08283924898493995</v>
+        <v>0.08094499642160301</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03933621040990561</v>
+        <v>0.03445582774155862</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>101</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1242481139.544141</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3888400712.090233</v>
+        <v>5731745105.885675</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1490813762821582</v>
+        <v>0.1233236280255003</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03747573141020073</v>
+        <v>0.05012599542700154</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1944200345.084308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2279183928.835086</v>
+        <v>2100142037.319052</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1489624937792916</v>
+        <v>0.1577968034529027</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05702941151693062</v>
+        <v>0.05421071124747477</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1139592005.474514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3563535978.439518</v>
+        <v>2447938463.624736</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09490731062758027</v>
+        <v>0.06219796681195607</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0431835631496894</v>
+        <v>0.04146618633310269</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>91</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1781768002.847682</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4965487856.674669</v>
+        <v>4759865443.313571</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1257640191030655</v>
+        <v>0.1210873032271286</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02585663506952604</v>
+        <v>0.03299071955889069</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>116</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2482744031.446308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2053294109.991909</v>
+        <v>1980818266.628088</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1010931135769394</v>
+        <v>0.09404860055971549</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03564105386026858</v>
+        <v>0.03901643506166683</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1026646992.759051</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3428966921.235301</v>
+        <v>3079807665.725284</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08777931472299527</v>
+        <v>0.08762165396445558</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05260423238653614</v>
+        <v>0.04340969819192707</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>120</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1714483417.328795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3277717434.323227</v>
+        <v>3806845298.302027</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1599325042462941</v>
+        <v>0.1542541870435957</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03059539802072957</v>
+        <v>0.02794870961923808</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>108</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1638858758.523123</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1931861941.917979</v>
+        <v>2169660076.319667</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1494705903495245</v>
+        <v>0.1228009995835688</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03328205506945369</v>
+        <v>0.02892436955108193</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>965930941.5364476</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3862771496.777791</v>
+        <v>5361198101.833197</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0800340978920997</v>
+        <v>0.1096553334769364</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02940303671633315</v>
+        <v>0.03381186424865835</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1931385727.357465</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1537570753.068539</v>
+        <v>1745710442.400201</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1128854937197819</v>
+        <v>0.1620075862904284</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02031932489782409</v>
+        <v>0.0302899107637685</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>768785369.7367506</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4399778905.850769</v>
+        <v>4555068185.301325</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1038079815676285</v>
+        <v>0.1185438922087933</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03637058816536086</v>
+        <v>0.04569488415102547</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>110</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2199889390.063273</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1665062861.122727</v>
+        <v>1485978399.700339</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1320199442393496</v>
+        <v>0.1598032387798302</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02708649578215573</v>
+        <v>0.0395735192046615</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>832531493.6639458</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4699086672.980562</v>
+        <v>3548368248.927271</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09346805390463946</v>
+        <v>0.1114223963650381</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03545766420035661</v>
+        <v>0.03278264697446425</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>67</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2349543370.733646</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3771146227.149713</v>
+        <v>3271703263.563844</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1172457506885576</v>
+        <v>0.1173727989975074</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02538438185630887</v>
+        <v>0.02743678099422299</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1885573068.29326</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4292947093.875145</v>
+        <v>4621979906.528616</v>
       </c>
       <c r="F82" t="n">
-        <v>0.134927140428907</v>
+        <v>0.163008965209555</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02538238110845921</v>
+        <v>0.0208505864305122</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>112</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2146473570.346849</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1522234444.774878</v>
+        <v>1626573345.79187</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1408454876045956</v>
+        <v>0.1395566192494567</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03096027198295142</v>
+        <v>0.03369399308674227</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>761117148.2034492</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2292285366.598516</v>
+        <v>1946916032.90853</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1152073464534403</v>
+        <v>0.09145340544020508</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03254012912589861</v>
+        <v>0.03683965067087419</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1146142645.481218</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3092453637.039551</v>
+        <v>3578317564.332153</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1702512370687744</v>
+        <v>0.1309086439853743</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03769889700675894</v>
+        <v>0.03701191487578136</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>120</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1546226888.87267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2778972168.584525</v>
+        <v>1791757227.579127</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1206595466561464</v>
+        <v>0.1113453952263206</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02080349569822541</v>
+        <v>0.02732422143055368</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>43</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1389486220.257317</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1061819201.229178</v>
+        <v>1212613162.943104</v>
       </c>
       <c r="F87" t="n">
-        <v>0.167394765229751</v>
+        <v>0.1150903986034767</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03875363038452612</v>
+        <v>0.03650433524715779</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>530909620.7821107</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3408376155.082141</v>
+        <v>2258945604.922373</v>
       </c>
       <c r="F88" t="n">
-        <v>0.111077675233808</v>
+        <v>0.1653280775657971</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0337113071090708</v>
+        <v>0.03074941305420335</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>126</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1704188148.350399</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2361748641.462863</v>
+        <v>2714588045.683429</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1538001866681518</v>
+        <v>0.1457407739550623</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03434030171667373</v>
+        <v>0.03900185895654442</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>107</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1180874405.630281</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1526966311.715895</v>
+        <v>1965573452.281004</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09823857935662059</v>
+        <v>0.1369850945026243</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05310803399264329</v>
+        <v>0.05056235148141414</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>763483139.5086685</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1336863556.740693</v>
+        <v>2051962247.586769</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1214467550248703</v>
+        <v>0.1641877458751702</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05501211458519856</v>
+        <v>0.05045787064653996</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>668431839.0297331</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2813803228.90366</v>
+        <v>2960834625.284955</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1039010513288872</v>
+        <v>0.1080259703863915</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04403636334630327</v>
+        <v>0.03565531058560639</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>83</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1406901622.153361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3685592652.967437</v>
+        <v>3978483821.86313</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1321873060773816</v>
+        <v>0.1239818197114673</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04472412545956671</v>
+        <v>0.05497681542321087</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>98</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1842796347.452111</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2240555991.084336</v>
+        <v>2334169419.924564</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1349262548613339</v>
+        <v>0.1129536000810494</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0362982704983251</v>
+        <v>0.03396924832703103</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1120278025.219107</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2774489724.54203</v>
+        <v>2657314499.506958</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1276698608010373</v>
+        <v>0.1256408492637204</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05039740620827621</v>
+        <v>0.04556305753946077</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>77</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1387244878.437469</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2256901544.57793</v>
+        <v>1667470325.70103</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1296561736805373</v>
+        <v>0.1112512753349384</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03253881845584643</v>
+        <v>0.04405395908520696</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1128450731.858124</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4803280098.034245</v>
+        <v>4981420969.220918</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1088743686925218</v>
+        <v>0.1242485234208909</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02685883169901107</v>
+        <v>0.02167447361291687</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>103</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2401640169.998427</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3331318623.488183</v>
+        <v>3619401988.846384</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1191723830738486</v>
+        <v>0.0885054828765391</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02954413703127264</v>
+        <v>0.0259846418910191</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>86</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1665659318.916312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3394654373.330388</v>
+        <v>2266744946.046004</v>
       </c>
       <c r="F99" t="n">
-        <v>0.120771278400229</v>
+        <v>0.1185692513848032</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02784934750883786</v>
+        <v>0.02491326427919575</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1697327201.197432</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3201895237.744112</v>
+        <v>4525781158.626304</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1619718505130207</v>
+        <v>0.1230795834159382</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02266933905020615</v>
+        <v>0.02518508812666891</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>99</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1600947625.839646</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3279232357.450802</v>
+        <v>2696970264.687156</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1922535307768945</v>
+        <v>0.1880847966361854</v>
       </c>
       <c r="G101" t="n">
-        <v>0.057143449514237</v>
+        <v>0.0546115057608533</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>127</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1639616304.730294</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_318.xlsx
+++ b/output/fit_clients/fit_round_318.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1722608500.707383</v>
+        <v>2127738665.398286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1047526106258984</v>
+        <v>0.1020422742814141</v>
       </c>
       <c r="G2" t="n">
-        <v>0.037800453639591</v>
+        <v>0.04357289459765566</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2096472337.542045</v>
+        <v>2527274709.393874</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1611274553902466</v>
+        <v>0.1133017580768885</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03388116551775588</v>
+        <v>0.04010516249935955</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5167477227.218346</v>
+        <v>4142313351.101578</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1189892849896006</v>
+        <v>0.124650109896012</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03522325201075312</v>
+        <v>0.03558842815428483</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2758522840.79762</v>
+        <v>3434521352.55739</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08138633245176795</v>
+        <v>0.0844663908130797</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03760821837626812</v>
+        <v>0.04125633431203105</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2091301825.811412</v>
+        <v>1739604754.125643</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1261211505440211</v>
+        <v>0.1493172188485737</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05176458448338946</v>
+        <v>0.04308019567510031</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2016592353.909227</v>
+        <v>2998485629.529713</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0689063464535008</v>
+        <v>0.08212214048336682</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04222288153180691</v>
+        <v>0.04542298449050559</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3507425885.443933</v>
+        <v>2838866165.651505</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2054468577769957</v>
+        <v>0.1413551622247761</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03298218063891165</v>
+        <v>0.03128928869300788</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1739340060.500431</v>
+        <v>1635728963.458342</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1884090365307433</v>
+        <v>0.1543534556916517</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02941425598464822</v>
+        <v>0.03156106368448824</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4505451932.606423</v>
+        <v>5096607811.496189</v>
       </c>
       <c r="F10" t="n">
-        <v>0.164947872023102</v>
+        <v>0.1755744492006143</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04728340303006294</v>
+        <v>0.03984058933428867</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3739969758.193553</v>
+        <v>2792669325.719701</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1818842223747557</v>
+        <v>0.1836157215341679</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03974532118012532</v>
+        <v>0.03930340017000154</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2847565554.494852</v>
+        <v>2167197650.671749</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1305670138288235</v>
+        <v>0.1516042184411847</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04801528195928433</v>
+        <v>0.05386443641792731</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4877306110.224775</v>
+        <v>5055106452.366433</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07159765493642084</v>
+        <v>0.09752218532989874</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02902845830617065</v>
+        <v>0.02086190149791499</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3156384432.458003</v>
+        <v>3458444926.387313</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1574822620773039</v>
+        <v>0.1658620194602781</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02793674221535968</v>
+        <v>0.03689452443902055</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1346210549.881611</v>
+        <v>1273046043.160445</v>
       </c>
       <c r="F15" t="n">
-        <v>0.108839701795963</v>
+        <v>0.1039017674300248</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04399422464545965</v>
+        <v>0.03909901126343521</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1965248280.149718</v>
+        <v>2642483130.627462</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1056342326253707</v>
+        <v>0.08793128903067786</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04891816190242169</v>
+        <v>0.03249140144948486</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3817496779.137511</v>
+        <v>3742778855.188747</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1128050832629079</v>
+        <v>0.1156440300709522</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04662957817321983</v>
+        <v>0.0356194111558996</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3532742396.830403</v>
+        <v>3388650763.379221</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1570345404741336</v>
+        <v>0.164862991201458</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03108267818560999</v>
+        <v>0.02412728190225439</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>889273161.79298</v>
+        <v>981515573.2447246</v>
       </c>
       <c r="F19" t="n">
-        <v>0.128577499102006</v>
+        <v>0.1810248415562377</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01959499313683425</v>
+        <v>0.02113963504378177</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1930008858.870049</v>
+        <v>2180027578.314145</v>
       </c>
       <c r="F20" t="n">
-        <v>0.100054738963406</v>
+        <v>0.1309260790134292</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02397057012935808</v>
+        <v>0.0201532808665941</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2438834587.806849</v>
+        <v>2325177086.018308</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08229539703735494</v>
+        <v>0.0783093208300452</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03660967871774327</v>
+        <v>0.03089788076845914</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3450073899.580477</v>
+        <v>3364993210.994861</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1239232913927064</v>
+        <v>0.1340135077232342</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03710798887032217</v>
+        <v>0.04612275694973815</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1079943317.189903</v>
+        <v>1096486421.801844</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1859657328402513</v>
+        <v>0.1582101716544753</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04013774850672572</v>
+        <v>0.04131296660993639</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3441228256.813864</v>
+        <v>3315078812.47153</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1203368676346162</v>
+        <v>0.1136967285625071</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03516707627096777</v>
+        <v>0.02545667069904733</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>952703260.7080294</v>
+        <v>921198541.371285</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09380542681492024</v>
+        <v>0.1162759909766704</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02554731011812987</v>
+        <v>0.02461065698409983</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1278326005.162367</v>
+        <v>1078546468.035592</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1217934818253315</v>
+        <v>0.1185976717341723</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03187688820162682</v>
+        <v>0.03690948157627318</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3578011933.227949</v>
+        <v>3873427301.53229</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09632988508814783</v>
+        <v>0.1115354067810438</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01940764080728784</v>
+        <v>0.02524662672657248</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3800907511.978769</v>
+        <v>3396596695.440475</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1345340739956863</v>
+        <v>0.1271050749037946</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0414461610519173</v>
+        <v>0.04178454427885064</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5040476714.962814</v>
+        <v>5362592153.009112</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09184837198528503</v>
+        <v>0.1271487596941097</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04563477874864466</v>
+        <v>0.04638746834504522</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1497564250.988539</v>
+        <v>1489082828.295803</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09234476342372346</v>
+        <v>0.10196946572082</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03212417381854898</v>
+        <v>0.02929090150058531</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1120016198.059292</v>
+        <v>1070497051.518983</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09253895993817333</v>
+        <v>0.1049522998998964</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04190544384496665</v>
+        <v>0.0465199226073051</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1554283169.031819</v>
+        <v>1529528899.81597</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07594214430563763</v>
+        <v>0.1118390984932454</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02417757437785591</v>
+        <v>0.02955537820971678</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2816303384.406162</v>
+        <v>2816737349.290567</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1895482224216241</v>
+        <v>0.1654354699039589</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05559175621974478</v>
+        <v>0.05742870162448736</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1515356551.97206</v>
+        <v>1243650235.565473</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0770486730394893</v>
+        <v>0.09408346669408649</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02422660833635228</v>
+        <v>0.02740835678276593</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1290123848.668506</v>
+        <v>1250452880.657498</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07443900839574105</v>
+        <v>0.07602815711958066</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03036667701853091</v>
+        <v>0.03753655643541031</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2247052568.894107</v>
+        <v>2753109199.287507</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1202297210876258</v>
+        <v>0.1164604175850515</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01813497687213675</v>
+        <v>0.01972796382958329</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2239743729.132073</v>
+        <v>2139075101.505966</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09555158317853223</v>
+        <v>0.08112166945675214</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02966807967406607</v>
+        <v>0.03113871013352154</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1821427945.93502</v>
+        <v>1816523732.858681</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1001838606572607</v>
+        <v>0.07572450625547777</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03241186454713103</v>
+        <v>0.03241085510864033</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2198647442.80463</v>
+        <v>2120074367.253464</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1523209541346364</v>
+        <v>0.1754207335457293</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02993641616702505</v>
+        <v>0.02171657673884493</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1719124526.851402</v>
+        <v>1528566048.921731</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1332693160590933</v>
+        <v>0.1371537172978562</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05252509103716539</v>
+        <v>0.05102862397467454</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2689473301.997437</v>
+        <v>2346989185.836001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.152459925379976</v>
+        <v>0.1201770847307344</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03718329195716184</v>
+        <v>0.04405644419167481</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3304987691.210439</v>
+        <v>2984390015.152274</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08499997164200671</v>
+        <v>0.108734093631808</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03809596792164311</v>
+        <v>0.04398275225701524</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1994001351.038859</v>
+        <v>2174021914.803263</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1757660549392793</v>
+        <v>0.1499594957952312</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02173195161375258</v>
+        <v>0.01994352223173092</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1537355917.425285</v>
+        <v>2032639980.855888</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0897880006784853</v>
+        <v>0.07098750127418066</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0293190119919479</v>
+        <v>0.02253842514085643</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1986152808.796332</v>
+        <v>1644125269.834078</v>
       </c>
       <c r="F45" t="n">
-        <v>0.186877089030022</v>
+        <v>0.1667456942793371</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04553254791073589</v>
+        <v>0.05499338626909255</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5212678902.752194</v>
+        <v>4756797265.873295</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1716300095096275</v>
+        <v>0.177215843354894</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04738443757421976</v>
+        <v>0.05550389010578956</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3640728962.728847</v>
+        <v>4835937233.153085</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1418528748021523</v>
+        <v>0.172165524188368</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05374964360935703</v>
+        <v>0.05691218608985775</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4279475112.258817</v>
+        <v>4724643498.157206</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0832554607795838</v>
+        <v>0.104716347137278</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03664257550375121</v>
+        <v>0.03124725969053541</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1688866556.262954</v>
+        <v>1707773626.037483</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1419865904946811</v>
+        <v>0.1594829788385767</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03103971921575926</v>
+        <v>0.02716216186057868</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4117964940.40425</v>
+        <v>3360780044.21913</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1438150880488725</v>
+        <v>0.1192219752648454</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0532410807649197</v>
+        <v>0.03664914916654048</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1509301278.406718</v>
+        <v>1384622182.068747</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1219548496315059</v>
+        <v>0.1937506978935679</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03315832932989422</v>
+        <v>0.05278791798022877</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4036927721.44879</v>
+        <v>4210563409.752724</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1004074676634188</v>
+        <v>0.1270489735378285</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0403463960148959</v>
+        <v>0.04793647941858452</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2626340525.979918</v>
+        <v>2508413209.302938</v>
       </c>
       <c r="F53" t="n">
-        <v>0.142050286304609</v>
+        <v>0.1337785485888374</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02400358090732655</v>
+        <v>0.02138154492788515</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4228700137.157769</v>
+        <v>4960462141.984476</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1497607440309663</v>
+        <v>0.1463330480656451</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04447747314200099</v>
+        <v>0.05096090042331856</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3187491495.364456</v>
+        <v>3240120427.467948</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2135915278149487</v>
+        <v>0.1380628901943055</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0313999065703774</v>
+        <v>0.02360177398223164</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1772335080.227027</v>
+        <v>1466882319.75965</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1390851406601534</v>
+        <v>0.1183346785417174</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04592711198972345</v>
+        <v>0.03906852492580085</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2789018164.831819</v>
+        <v>3223830248.360594</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1618195894183481</v>
+        <v>0.1478756521265789</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02207992475135905</v>
+        <v>0.02366695610497781</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1679753504.754375</v>
+        <v>1401824733.801762</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1663127028911718</v>
+        <v>0.1579285691884056</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03180792216131523</v>
+        <v>0.03768951607551719</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4698059635.558485</v>
+        <v>4166941499.642567</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1124575782091512</v>
+        <v>0.1254806407459508</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04541548726344154</v>
+        <v>0.03188211967352399</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2380373159.296277</v>
+        <v>3011618370.21095</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1643891741345053</v>
+        <v>0.1531242439421383</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02493181669635228</v>
+        <v>0.03335501039856345</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2802764979.129745</v>
+        <v>2205729259.251237</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1341338328499444</v>
+        <v>0.1085863724131021</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02907857537703191</v>
+        <v>0.02964410169788589</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1522822876.507964</v>
+        <v>1575974979.132571</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1740822014070866</v>
+        <v>0.1881367953565827</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0434672454276115</v>
+        <v>0.04152965264720553</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3874577132.172915</v>
+        <v>4607402394.090811</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09872429702998006</v>
+        <v>0.0996231109299584</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04406831804202498</v>
+        <v>0.04139352515172931</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5210240192.605225</v>
+        <v>4035688122.030911</v>
       </c>
       <c r="F64" t="n">
-        <v>0.149828892205236</v>
+        <v>0.1312594752540958</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02493841443599306</v>
+        <v>0.02376106063399232</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5803450876.710647</v>
+        <v>4895058625.103653</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1093166278579958</v>
+        <v>0.1573434300943775</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02493719286859352</v>
+        <v>0.03063358751078812</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4172219557.801372</v>
+        <v>4646333759.786726</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1134600606978018</v>
+        <v>0.1100568284278929</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03519699350953122</v>
+        <v>0.03444605367780414</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2153339881.955776</v>
+        <v>3472919135.072263</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08094499642160301</v>
+        <v>0.08394013662617414</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03445582774155862</v>
+        <v>0.0443439737457314</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5731745105.885675</v>
+        <v>5135770522.019419</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1233236280255003</v>
+        <v>0.1197133842942894</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05012599542700154</v>
+        <v>0.04899066156202364</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2100142037.319052</v>
+        <v>1855707843.801707</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1577968034529027</v>
+        <v>0.1422008865711927</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05421071124747477</v>
+        <v>0.05847635475392205</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2447938463.624736</v>
+        <v>3135433189.916663</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06219796681195607</v>
+        <v>0.07681269338641439</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04146618633310269</v>
+        <v>0.0298996728065725</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4759865443.313571</v>
+        <v>3553218650.624633</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1210873032271286</v>
+        <v>0.1614751260557555</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03299071955889069</v>
+        <v>0.02860153685465728</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1980818266.628088</v>
+        <v>2055175167.770955</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09404860055971549</v>
+        <v>0.0754589214637576</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03901643506166683</v>
+        <v>0.04852470071522868</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3079807665.725284</v>
+        <v>2445324912.787488</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08762165396445558</v>
+        <v>0.09430803195330448</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04340969819192707</v>
+        <v>0.03268100133219413</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3806845298.302027</v>
+        <v>3112259430.722563</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1542541870435957</v>
+        <v>0.1381021925016437</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02794870961923808</v>
+        <v>0.02626689049648097</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2169660076.319667</v>
+        <v>2147089234.211247</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1228009995835688</v>
+        <v>0.1413151280668544</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02892436955108193</v>
+        <v>0.02295116071370829</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5361198101.833197</v>
+        <v>3357646008.557726</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1096553334769364</v>
+        <v>0.1165139873570331</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03381186424865835</v>
+        <v>0.02412161556708818</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1745710442.400201</v>
+        <v>2118063932.194101</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1620075862904284</v>
+        <v>0.1155984445317056</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0302899107637685</v>
+        <v>0.02105764693548437</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4555068185.301325</v>
+        <v>4663593418.664629</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1185438922087933</v>
+        <v>0.1026739449688932</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04569488415102547</v>
+        <v>0.0362847583469174</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1485978399.700339</v>
+        <v>1361558071.212282</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1598032387798302</v>
+        <v>0.1337121805061712</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0395735192046615</v>
+        <v>0.03620525217812384</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3548368248.927271</v>
+        <v>4050631131.539046</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1114223963650381</v>
+        <v>0.08612748705628331</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03278264697446425</v>
+        <v>0.03713442411641467</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3271703263.563844</v>
+        <v>5015139317.154444</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1173727989975074</v>
+        <v>0.0989921964360367</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02743678099422299</v>
+        <v>0.02437905089734824</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4621979906.528616</v>
+        <v>4637441146.976507</v>
       </c>
       <c r="F82" t="n">
-        <v>0.163008965209555</v>
+        <v>0.1832245450415207</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0208505864305122</v>
+        <v>0.01845424434714203</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1626573345.79187</v>
+        <v>2430441293.819496</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1395566192494567</v>
+        <v>0.1151328585735009</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03369399308674227</v>
+        <v>0.02806370886100562</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1946916032.90853</v>
+        <v>1667747116.693737</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09145340544020508</v>
+        <v>0.1175562275255027</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03683965067087419</v>
+        <v>0.04451274944501968</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3578317564.332153</v>
+        <v>3454074452.047263</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1309086439853743</v>
+        <v>0.1283735799214319</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03701191487578136</v>
+        <v>0.05251861536254088</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1791757227.579127</v>
+        <v>2071291397.904557</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1113453952263206</v>
+        <v>0.1468369326810376</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02732422143055368</v>
+        <v>0.02456405629960068</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1212613162.943104</v>
+        <v>975307693.3265371</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1150903986034767</v>
+        <v>0.1700704540030462</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03650433524715779</v>
+        <v>0.02739723945339523</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2258945604.922373</v>
+        <v>3266084323.591417</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1653280775657971</v>
+        <v>0.1708610983614915</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03074941305420335</v>
+        <v>0.03036007231272457</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2714588045.683429</v>
+        <v>3338075717.542915</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1457407739550623</v>
+        <v>0.150386241914564</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03900185895654442</v>
+        <v>0.03034117562638993</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1965573452.281004</v>
+        <v>1486798370.750996</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1369850945026243</v>
+        <v>0.1161069326369069</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05056235148141414</v>
+        <v>0.03630934538740639</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2051962247.586769</v>
+        <v>1825160145.295063</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1641877458751702</v>
+        <v>0.1601860430258099</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05045787064653996</v>
+        <v>0.04377975504901004</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2960834625.284955</v>
+        <v>2657163473.370463</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1080259703863915</v>
+        <v>0.1059668315407793</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03565531058560639</v>
+        <v>0.03636602396498311</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3978483821.86313</v>
+        <v>4100476681.918909</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1239818197114673</v>
+        <v>0.1188444937731457</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05497681542321087</v>
+        <v>0.05431265645952729</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2334169419.924564</v>
+        <v>1858908963.948862</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1129536000810494</v>
+        <v>0.1341750941382225</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03396924832703103</v>
+        <v>0.03772361769145812</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2657314499.506958</v>
+        <v>2012325904.615966</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1256408492637204</v>
+        <v>0.0900402074274671</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04556305753946077</v>
+        <v>0.0497550127088378</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1667470325.70103</v>
+        <v>2261576910.20454</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1112512753349384</v>
+        <v>0.1321577511436096</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04405395908520696</v>
+        <v>0.04464428241168535</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4981420969.220918</v>
+        <v>3734114551.030607</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1242485234208909</v>
+        <v>0.1194935800437656</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02167447361291687</v>
+        <v>0.02404542802626368</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3619401988.846384</v>
+        <v>2378029722.014378</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0885054828765391</v>
+        <v>0.1034328180511327</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0259846418910191</v>
+        <v>0.02644599143165513</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2266744946.046004</v>
+        <v>2174323076.504092</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1185692513848032</v>
+        <v>0.1260409991566287</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02491326427919575</v>
+        <v>0.02962611840742783</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4525781158.626304</v>
+        <v>4615971436.558021</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1230795834159382</v>
+        <v>0.160839322390519</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02518508812666891</v>
+        <v>0.01746273967240459</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2696970264.687156</v>
+        <v>3137813226.577406</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1880847966361854</v>
+        <v>0.1464857444185866</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0546115057608533</v>
+        <v>0.05183602504044192</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_318.xlsx
+++ b/output/fit_clients/fit_round_318.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2127738665.398286</v>
+        <v>1945989986.453815</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1020422742814141</v>
+        <v>0.09366557695238455</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04357289459765566</v>
+        <v>0.03455399066519454</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2527274709.393874</v>
+        <v>1678641513.588885</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1133017580768885</v>
+        <v>0.180675869637741</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04010516249935955</v>
+        <v>0.05006539849623378</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4142313351.101578</v>
+        <v>5144393085.570126</v>
       </c>
       <c r="F4" t="n">
-        <v>0.124650109896012</v>
+        <v>0.1607943749922199</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03558842815428483</v>
+        <v>0.0307413859093378</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>166</v>
+      </c>
+      <c r="J4" t="n">
+        <v>318</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3434521352.55739</v>
+        <v>4167142557.062425</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0844663908130797</v>
+        <v>0.1072895262181515</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04125633431203105</v>
+        <v>0.03954351614671298</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>126</v>
+      </c>
+      <c r="J5" t="n">
+        <v>318</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1739604754.125643</v>
+        <v>2377241888.849878</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1493172188485737</v>
+        <v>0.1108318801285543</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04308019567510031</v>
+        <v>0.05179139464030875</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2998485629.529713</v>
+        <v>2032976233.870053</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08212214048336682</v>
+        <v>0.0716681702879685</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04542298449050559</v>
+        <v>0.04805370865600524</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2838866165.651505</v>
+        <v>2998473828.010488</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1413551622247761</v>
+        <v>0.1513255429229511</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03128928869300788</v>
+        <v>0.03276895545071036</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>85</v>
+      </c>
+      <c r="J8" t="n">
+        <v>314</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1635728963.458342</v>
+        <v>2130419757.481688</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1543534556916517</v>
+        <v>0.1792664440783432</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03156106368448824</v>
+        <v>0.02931189826915681</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5096607811.496189</v>
+        <v>4268126678.988472</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1755744492006143</v>
+        <v>0.1670488119540293</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03984058933428867</v>
+        <v>0.04759615812175241</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>278</v>
+      </c>
+      <c r="J10" t="n">
+        <v>317</v>
+      </c>
+      <c r="K10" t="n">
+        <v>77.00688941237952</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2792669325.719701</v>
+        <v>4060569629.506656</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1836157215341679</v>
+        <v>0.1659558818892948</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03930340017000154</v>
+        <v>0.04082503682636921</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>129</v>
+      </c>
+      <c r="J11" t="n">
+        <v>318</v>
+      </c>
+      <c r="K11" t="n">
+        <v>85.94364228232681</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2167197650.671749</v>
+        <v>2863734593.516067</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1516042184411847</v>
+        <v>0.1263548035416427</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05386443641792731</v>
+        <v>0.04860762414015769</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5055106452.366433</v>
+        <v>3939835648.282529</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09752218532989874</v>
+        <v>0.06373240684089715</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02086190149791499</v>
+        <v>0.02376311015822397</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>164</v>
+      </c>
+      <c r="J13" t="n">
+        <v>315</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3458444926.387313</v>
+        <v>3429959510.52207</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1658620194602781</v>
+        <v>0.1420007196985036</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03689452443902055</v>
+        <v>0.03542955325838412</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>310</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1273046043.160445</v>
+        <v>1555541395.250231</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1039017674300248</v>
+        <v>0.08437696467148649</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03909901126343521</v>
+        <v>0.03379123755082624</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2642483130.627462</v>
+        <v>2024577781.830179</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08793128903067786</v>
+        <v>0.09801118285808622</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03249140144948486</v>
+        <v>0.04496762801980018</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3742778855.188747</v>
+        <v>4352906691.928076</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1156440300709522</v>
+        <v>0.1640471075961455</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0356194111558996</v>
+        <v>0.04119775845372584</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>149</v>
+      </c>
+      <c r="J17" t="n">
+        <v>318</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1065,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3388650763.379221</v>
+        <v>3596784591.07552</v>
       </c>
       <c r="F18" t="n">
-        <v>0.164862991201458</v>
+        <v>0.1704585965163328</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02412728190225439</v>
+        <v>0.02849788256998459</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>78</v>
+      </c>
+      <c r="J18" t="n">
+        <v>317</v>
+      </c>
+      <c r="K18" t="n">
+        <v>73.5761417981478</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>981515573.2447246</v>
+        <v>1085875876.732845</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1810248415562377</v>
+        <v>0.1756071232048603</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02113963504378177</v>
+        <v>0.02121133956486679</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2180027578.314145</v>
+        <v>1709800738.840459</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1309260790134292</v>
+        <v>0.1531056281950922</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0201532808665941</v>
+        <v>0.02148812633275838</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2325177086.018308</v>
+        <v>2576700856.896762</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0783093208300452</v>
+        <v>0.09185582337080481</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03089788076845914</v>
+        <v>0.04289053083274121</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3364993210.994861</v>
+        <v>2440080016.085908</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1340135077232342</v>
+        <v>0.1433914493506355</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04612275694973815</v>
+        <v>0.03694161595133088</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>86</v>
+      </c>
+      <c r="J22" t="n">
+        <v>317</v>
+      </c>
+      <c r="K22" t="n">
+        <v>29.7507809807046</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1096486421.801844</v>
+        <v>1432405680.583302</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1582101716544753</v>
+        <v>0.137154979726971</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04131296660993639</v>
+        <v>0.03674550491101394</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3315078812.47153</v>
+        <v>3512451120.426842</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1136967285625071</v>
+        <v>0.1454781746471425</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02545667069904733</v>
+        <v>0.02445476683199214</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>95</v>
+      </c>
+      <c r="J24" t="n">
+        <v>316</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>921198541.371285</v>
+        <v>1402444189.809184</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1162759909766704</v>
+        <v>0.1224116947195251</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02461065698409983</v>
+        <v>0.01888242223966773</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1078546468.035592</v>
+        <v>1006064385.128107</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1185976717341723</v>
+        <v>0.1133393410833903</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03690948157627318</v>
+        <v>0.02525146532559904</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3873427301.53229</v>
+        <v>4101090606.110872</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1115354067810438</v>
+        <v>0.1123862554022406</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02524662672657248</v>
+        <v>0.0177114700386218</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>131</v>
+      </c>
+      <c r="J27" t="n">
+        <v>318</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3396596695.440475</v>
+        <v>3720930727.079915</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1271050749037946</v>
+        <v>0.1165690738609927</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04178454427885064</v>
+        <v>0.03894065573847412</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>67</v>
+      </c>
+      <c r="J28" t="n">
+        <v>318</v>
+      </c>
+      <c r="K28" t="n">
+        <v>81.03343616652343</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5362592153.009112</v>
+        <v>5687276524.829559</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1271487596941097</v>
+        <v>0.1483366779124499</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04638746834504522</v>
+        <v>0.03054773245235853</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>294</v>
+      </c>
+      <c r="J29" t="n">
+        <v>318</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1489082828.295803</v>
+        <v>1936972462.33954</v>
       </c>
       <c r="F30" t="n">
-        <v>0.10196946572082</v>
+        <v>0.1060094215159225</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02929090150058531</v>
+        <v>0.03379192042966598</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1070497051.518983</v>
+        <v>1037640415.679521</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1049522998998964</v>
+        <v>0.1031729224817429</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0465199226073051</v>
+        <v>0.03963295210212135</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1529528899.81597</v>
+        <v>1900966128.142501</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1118390984932454</v>
+        <v>0.1089501865449423</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02955537820971678</v>
+        <v>0.025514126954929</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2816737349.290567</v>
+        <v>2907294599.072593</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1654354699039589</v>
+        <v>0.1710957123336088</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05742870162448736</v>
+        <v>0.05727156709336349</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1243650235.565473</v>
+        <v>1024148491.523196</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09408346669408649</v>
+        <v>0.1004544195295618</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02740835678276593</v>
+        <v>0.02474190200849442</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1250452880.657498</v>
+        <v>1150515228.858855</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07602815711958066</v>
+        <v>0.07408874120964117</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03753655643541031</v>
+        <v>0.04286640771020374</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2753109199.287507</v>
+        <v>2604054438.516348</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1164604175850515</v>
+        <v>0.1687791877135552</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01972796382958329</v>
+        <v>0.02158907819589376</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2139075101.505966</v>
+        <v>2483259103.34662</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08112166945675214</v>
+        <v>0.07606336172035016</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03113871013352154</v>
+        <v>0.03889190847770459</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1816523732.858681</v>
+        <v>1524942052.810068</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07572450625547777</v>
+        <v>0.08271254759045604</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03241085510864033</v>
+        <v>0.02626955912591977</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2120074367.253464</v>
+        <v>1956832165.796175</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1754207335457293</v>
+        <v>0.1287840780293181</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02171657673884493</v>
+        <v>0.02261636526580358</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1528566048.921731</v>
+        <v>1518983221.11837</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1371537172978562</v>
+        <v>0.1398074449927681</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05102862397467454</v>
+        <v>0.04799920755794855</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2346989185.836001</v>
+        <v>2280401451.207149</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1201770847307344</v>
+        <v>0.1430979252587504</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04405644419167481</v>
+        <v>0.04592518285228286</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2984390015.152274</v>
+        <v>4336734612.048148</v>
       </c>
       <c r="F42" t="n">
-        <v>0.108734093631808</v>
+        <v>0.08202057821422737</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04398275225701524</v>
+        <v>0.04388329814045034</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>130</v>
+      </c>
+      <c r="J42" t="n">
+        <v>318</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2174021914.803263</v>
+        <v>1920584759.955997</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1499594957952312</v>
+        <v>0.1644261918487561</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01994352223173092</v>
+        <v>0.02341225198830686</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2032639980.855888</v>
+        <v>1760186054.789934</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07098750127418066</v>
+        <v>0.1012948476231615</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02253842514085643</v>
+        <v>0.02237159192740307</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1644125269.834078</v>
+        <v>2394773530.277284</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1667456942793371</v>
+        <v>0.1513551011789918</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05499338626909255</v>
+        <v>0.04658533217168071</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4756797265.873295</v>
+        <v>5086212484.801998</v>
       </c>
       <c r="F46" t="n">
-        <v>0.177215843354894</v>
+        <v>0.1351100466562599</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05550389010578956</v>
+        <v>0.04236801400668608</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>190</v>
+      </c>
+      <c r="J46" t="n">
+        <v>318</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4835937233.153085</v>
+        <v>4552484832.189228</v>
       </c>
       <c r="F47" t="n">
-        <v>0.172165524188368</v>
+        <v>0.1371620634129018</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05691218608985775</v>
+        <v>0.0369961986384389</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>141</v>
+      </c>
+      <c r="J47" t="n">
+        <v>318</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2115,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4724643498.157206</v>
+        <v>4029681472.672243</v>
       </c>
       <c r="F48" t="n">
-        <v>0.104716347137278</v>
+        <v>0.1044396329618315</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03124725969053541</v>
+        <v>0.02533636405834881</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>159</v>
+      </c>
+      <c r="J48" t="n">
+        <v>315</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1707773626.037483</v>
+        <v>1515085457.056147</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1594829788385767</v>
+        <v>0.1372592401264151</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02716216186057868</v>
+        <v>0.02787005082175802</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2185,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3360780044.21913</v>
+        <v>3968903709.36526</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1192219752648454</v>
+        <v>0.1250080491629042</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03664914916654048</v>
+        <v>0.04715440267020317</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>102</v>
+      </c>
+      <c r="J50" t="n">
+        <v>318</v>
+      </c>
+      <c r="K50" t="n">
+        <v>84.96835351012867</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2228,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1384622182.068747</v>
+        <v>1344051501.198141</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1937506978935679</v>
+        <v>0.1844597262533455</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05278791798022877</v>
+        <v>0.04916401370401029</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2257,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4210563409.752724</v>
+        <v>4981393431.484018</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1270489735378285</v>
+        <v>0.1016656721007372</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04793647941858452</v>
+        <v>0.03807678714020035</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>193</v>
+      </c>
+      <c r="J52" t="n">
+        <v>318</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2292,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2508413209.302938</v>
+        <v>2845255442.541972</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1337785485888374</v>
+        <v>0.1368858107573802</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02138154492788515</v>
+        <v>0.03288340412785296</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>45</v>
+      </c>
+      <c r="J53" t="n">
+        <v>317</v>
+      </c>
+      <c r="K53" t="n">
+        <v>44.31781225621383</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4960462141.984476</v>
+        <v>4671111131.451573</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1463330480656451</v>
+        <v>0.1635345562694769</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05096090042331856</v>
+        <v>0.04539876806241561</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>167</v>
+      </c>
+      <c r="J54" t="n">
+        <v>318</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3240120427.467948</v>
+        <v>4433811567.497381</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1380628901943055</v>
+        <v>0.1377058036010288</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02360177398223164</v>
+        <v>0.02059957192659221</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>148</v>
+      </c>
+      <c r="J55" t="n">
+        <v>317</v>
+      </c>
+      <c r="K55" t="n">
+        <v>76.33321157434985</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1466882319.75965</v>
+        <v>1314200959.08275</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1183346785417174</v>
+        <v>0.1381250279448066</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03906852492580085</v>
+        <v>0.04772943830729788</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3223830248.360594</v>
+        <v>3989027849.062377</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1478756521265789</v>
+        <v>0.1445006916495121</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02366695610497781</v>
+        <v>0.01726147576243565</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>130</v>
+      </c>
+      <c r="J57" t="n">
+        <v>318</v>
+      </c>
+      <c r="K57" t="n">
+        <v>78.31925654435425</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1401824733.801762</v>
+        <v>1584424010.188987</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1579285691884056</v>
+        <v>0.1353411635508428</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03768951607551719</v>
+        <v>0.03869429351129367</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4166941499.642567</v>
+        <v>4031421336.163291</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1254806407459508</v>
+        <v>0.09204800677164535</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03188211967352399</v>
+        <v>0.03149718821747074</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>154</v>
+      </c>
+      <c r="J59" t="n">
+        <v>317</v>
+      </c>
+      <c r="K59" t="n">
+        <v>74.20132714490883</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3011618370.21095</v>
+        <v>2873950825.299267</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1531242439421383</v>
+        <v>0.1691295379484657</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03335501039856345</v>
+        <v>0.02646915959543279</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>55</v>
+      </c>
+      <c r="J60" t="n">
+        <v>316</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2205729259.251237</v>
+        <v>2871323718.999157</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1085863724131021</v>
+        <v>0.1611274791278209</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02964410169788589</v>
+        <v>0.03082015767194882</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1575974979.132571</v>
+        <v>1850098236.972445</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1881367953565827</v>
+        <v>0.1380250524683591</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04152965264720553</v>
+        <v>0.03176525730115043</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4607402394.090811</v>
+        <v>4090059867.245721</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0996231109299584</v>
+        <v>0.09260907051090064</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04139352515172931</v>
+        <v>0.03843382402915668</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>154</v>
+      </c>
+      <c r="J63" t="n">
+        <v>318</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4035688122.030911</v>
+        <v>5531393990.263037</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1312594752540958</v>
+        <v>0.1385307614574639</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02376106063399232</v>
+        <v>0.03526647020449993</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>157</v>
+      </c>
+      <c r="J64" t="n">
+        <v>318</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2726,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4895058625.103653</v>
+        <v>5993859351.566963</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1573434300943775</v>
+        <v>0.1507577546232914</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03063358751078812</v>
+        <v>0.02301431287793524</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>250</v>
+      </c>
+      <c r="J65" t="n">
+        <v>318</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2755,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4646333759.786726</v>
+        <v>3825569922.377125</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1100568284278929</v>
+        <v>0.146604645458499</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03444605367780414</v>
+        <v>0.03168977536766161</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>157</v>
+      </c>
+      <c r="J66" t="n">
+        <v>317</v>
+      </c>
+      <c r="K66" t="n">
+        <v>63.11868522606675</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3472919135.072263</v>
+        <v>2215929692.659293</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08394013662617414</v>
+        <v>0.08067135433225713</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0443439737457314</v>
+        <v>0.03779147007633076</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2827,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5135770522.019419</v>
+        <v>4487136260.954604</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1197133842942894</v>
+        <v>0.09856573976910465</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04899066156202364</v>
+        <v>0.03789477310455491</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>171</v>
+      </c>
+      <c r="J68" t="n">
+        <v>318</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1855707843.801707</v>
+        <v>2246169838.193038</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1422008865711927</v>
+        <v>0.1800045520243549</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05847635475392205</v>
+        <v>0.04771632107021634</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2897,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3135433189.916663</v>
+        <v>3701101307.328429</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07681269338641439</v>
+        <v>0.06452788945356892</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0298996728065725</v>
+        <v>0.03945152650420033</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>47</v>
+      </c>
+      <c r="J70" t="n">
+        <v>313</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2932,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3553218650.624633</v>
+        <v>4690400119.450496</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1614751260557555</v>
+        <v>0.1299779110403209</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02860153685465728</v>
+        <v>0.02987668853046044</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>235</v>
+      </c>
+      <c r="J71" t="n">
+        <v>317</v>
+      </c>
+      <c r="K71" t="n">
+        <v>77.27625317802523</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2975,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2055175167.770955</v>
+        <v>1922697431.143153</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0754589214637576</v>
+        <v>0.08386158569722989</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04852470071522868</v>
+        <v>0.0423760911124231</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3004,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2445324912.787488</v>
+        <v>2470919971.725216</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09430803195330448</v>
+        <v>0.07403335220905091</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03268100133219413</v>
+        <v>0.03183949187033601</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3039,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3112259430.722563</v>
+        <v>3315954765.312896</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1381021925016437</v>
+        <v>0.1535661398226638</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02626689049648097</v>
+        <v>0.03126092445456367</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>83</v>
+      </c>
+      <c r="J74" t="n">
+        <v>315</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3080,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2147089234.211247</v>
+        <v>2413388244.705248</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1413151280668544</v>
+        <v>0.1071227924436651</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02295116071370829</v>
+        <v>0.02460088870756455</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3109,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3357646008.557726</v>
+        <v>3564098232.116874</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1165139873570331</v>
+        <v>0.101990437872998</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02412161556708818</v>
+        <v>0.0226837740046643</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>150</v>
+      </c>
+      <c r="J76" t="n">
+        <v>317</v>
+      </c>
+      <c r="K76" t="n">
+        <v>57.73344075255581</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2118063932.194101</v>
+        <v>1929136871.897519</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1155984445317056</v>
+        <v>0.1742668660862023</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02105764693548437</v>
+        <v>0.02756959792214573</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3187,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4663593418.664629</v>
+        <v>3508227452.060923</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1026739449688932</v>
+        <v>0.1005355969730385</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0362847583469174</v>
+        <v>0.04981592999338334</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>158</v>
+      </c>
+      <c r="J78" t="n">
+        <v>317</v>
+      </c>
+      <c r="K78" t="n">
+        <v>60.31012553543957</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1361558071.212282</v>
+        <v>1510418337.732625</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1337121805061712</v>
+        <v>0.15437737945359</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03620525217812384</v>
+        <v>0.04029443537224877</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3253,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4050631131.539046</v>
+        <v>4316972830.002732</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08612748705628331</v>
+        <v>0.08568174301911848</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03713442411641467</v>
+        <v>0.02910950865229362</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>155</v>
+      </c>
+      <c r="J80" t="n">
+        <v>318</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5015139317.154444</v>
+        <v>4791639207.851444</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0989921964360367</v>
+        <v>0.09247063025671692</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02437905089734824</v>
+        <v>0.02927332532431087</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>147</v>
+      </c>
+      <c r="J81" t="n">
+        <v>317</v>
+      </c>
+      <c r="K81" t="n">
+        <v>69.98601303925696</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4637441146.976507</v>
+        <v>3712028797.556129</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1832245450415207</v>
+        <v>0.1468352960919422</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01845424434714203</v>
+        <v>0.02024165137093654</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>230</v>
+      </c>
+      <c r="J82" t="n">
+        <v>317</v>
+      </c>
+      <c r="K82" t="n">
+        <v>66.47487702158355</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2430441293.819496</v>
+        <v>2489280235.412647</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1151328585735009</v>
+        <v>0.140889760291937</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02806370886100562</v>
+        <v>0.03080953184417678</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1667747116.693737</v>
+        <v>2437073407.713347</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1175562275255027</v>
+        <v>0.08035568688026223</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04451274944501968</v>
+        <v>0.03759764796501137</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3454074452.047263</v>
+        <v>3090573512.9639</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1283735799214319</v>
+        <v>0.1239616959478965</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05251861536254088</v>
+        <v>0.03842736998188272</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>42</v>
+      </c>
+      <c r="J85" t="n">
+        <v>315</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2071291397.904557</v>
+        <v>1835960069.225625</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1468369326810376</v>
+        <v>0.1249444311330175</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02456405629960068</v>
+        <v>0.02173472327792562</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>975307693.3265371</v>
+        <v>1338523561.006689</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1700704540030462</v>
+        <v>0.179876398080412</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02739723945339523</v>
+        <v>0.02965061150479714</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3266084323.591417</v>
+        <v>3411741424.610855</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1708610983614915</v>
+        <v>0.1499803825725952</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03036007231272457</v>
+        <v>0.03956178782494146</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3572,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3338075717.542915</v>
+        <v>2792868897.358757</v>
       </c>
       <c r="F89" t="n">
-        <v>0.150386241914564</v>
+        <v>0.134613573291632</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03034117562638993</v>
+        <v>0.02607308339512803</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>314</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3613,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1486798370.750996</v>
+        <v>1858791414.620248</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1161069326369069</v>
+        <v>0.1234496875123509</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03630934538740639</v>
+        <v>0.05090381885002773</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3642,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1825160145.295063</v>
+        <v>2058711454.201937</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1601860430258099</v>
+        <v>0.1650581565037248</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04377975504901004</v>
+        <v>0.04220530130031672</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3677,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2657163473.370463</v>
+        <v>2068795948.537481</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1059668315407793</v>
+        <v>0.06953474797802577</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03636602396498311</v>
+        <v>0.03162094941045009</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3712,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4100476681.918909</v>
+        <v>4484085337.314317</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1188444937731457</v>
+        <v>0.1030695580578335</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05431265645952729</v>
+        <v>0.0433379291650962</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>143</v>
+      </c>
+      <c r="J93" t="n">
+        <v>317</v>
+      </c>
+      <c r="K93" t="n">
+        <v>77.63328516736114</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1858908963.948862</v>
+        <v>2427324303.828128</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1341750941382225</v>
+        <v>0.1472561684410364</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03772361769145812</v>
+        <v>0.02672308727666462</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2012325904.615966</v>
+        <v>2456041250.981453</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0900402074274671</v>
+        <v>0.116911186255103</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0497550127088378</v>
+        <v>0.05215392819065184</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2261576910.20454</v>
+        <v>2192961082.762649</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1321577511436096</v>
+        <v>0.1085078827524129</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04464428241168535</v>
+        <v>0.04561184985832712</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3734114551.030607</v>
+        <v>5352779972.491242</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1194935800437656</v>
+        <v>0.1065616660618155</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02404542802626368</v>
+        <v>0.02586085839986679</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>161</v>
+      </c>
+      <c r="J97" t="n">
+        <v>318</v>
+      </c>
+      <c r="K97" t="n">
+        <v>79.03046413548455</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2378029722.014378</v>
+        <v>3420513819.062222</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1034328180511327</v>
+        <v>0.1033333953520193</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02644599143165513</v>
+        <v>0.031461645765364</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>79</v>
+      </c>
+      <c r="J98" t="n">
+        <v>317</v>
+      </c>
+      <c r="K98" t="n">
+        <v>57.02055377928368</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2174323076.504092</v>
+        <v>3355838443.787493</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1260409991566287</v>
+        <v>0.1403035390045917</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02962611840742783</v>
+        <v>0.02998859009957755</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4615971436.558021</v>
+        <v>3994451384.914048</v>
       </c>
       <c r="F100" t="n">
-        <v>0.160839322390519</v>
+        <v>0.1686029513267481</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01746273967240459</v>
+        <v>0.02491776771303929</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>140</v>
+      </c>
+      <c r="J100" t="n">
+        <v>317</v>
+      </c>
+      <c r="K100" t="n">
+        <v>78.01014758566176</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3137813226.577406</v>
+        <v>3434862462.321614</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1464857444185866</v>
+        <v>0.1527736997475821</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05183602504044192</v>
+        <v>0.05130896037878186</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
